--- a/inst/shiny/www/demo/iTReX-Demo_MRA_LayoutAndReadouts_INF-R-153_ST12.xlsx
+++ b/inst/shiny/www/demo/iTReX-Demo_MRA_LayoutAndReadouts_INF-R-153_ST12.xlsx
@@ -394,7 +394,6 @@
   </si>
   <si>
     <t xml:space="preserve">Concentration of applied therapy
-Usually given in nM, which is currently hard-coded in the app. Please verify results when using other units (µM, Gy, …).
  </t>
   </si>
   <si>
